--- a/data/georgia_census/guria/choxatauri/population_total.xlsx
+++ b/data/georgia_census/guria/choxatauri/population_total.xlsx
@@ -1352,13 +1352,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA7C196C-2F64-438C-8283-E98F6B64E83F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F495DA-0259-4745-99D6-7FFF11A75A03}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEE92ACD-7FE3-4D99-8AE2-4B9FF9E13F5B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB03256D-ACB1-423E-AF8F-E04008676770}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4EF8978-1056-4EDF-AC10-7DA2E27FA6A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52DEC622-1D96-4139-B463-4CAEA82F37A2}"/>
 </file>